--- a/biology/Botanique/Sibbaldiopsis_tridentata/Sibbaldiopsis_tridentata.xlsx
+++ b/biology/Botanique/Sibbaldiopsis_tridentata/Sibbaldiopsis_tridentata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sibbaldiopsis tridentata est une espèce de plantes à fleurs de la famille des Rosaceae.
 En 2009, une révision taxinomique propose d'inclure l'espèce dans le genre Sibbaldia. Selon l'acceptation ou non de cette révision, l'espèce pourrait changer de nom en Sibbaldia tridentata (Aiton) Paule &amp; Soják
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante herbacée basse (généralement une dizaine de centimètres de hauteur), ligneuse à la base, présente des feuilles pennées en trois lobes dentés à leur extrémité. Les fleurs blanches donnent naissance à des akènes.
 </t>
@@ -543,7 +557,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Potentilla tridentata  Aiton
 </t>
